--- a/sample_synthetic/sample_synthetic_backend.xlsx
+++ b/sample_synthetic/sample_synthetic_backend.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS11"/>
+  <dimension ref="A1:BS31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4335,6 +4335,7106 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BA31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BD31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BI31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BJ31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BK31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BL31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BM31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BO31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BP31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BQ31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>Backend_derived</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
